--- a/sample-data/sensors.xlsx
+++ b/sample-data/sensors.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11213"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Dropbox\Fiware4Water\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jasonfox/Workspace/junk/csv-to-json/sample-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E41A299-E3A3-6F4D-A4C8-6B0AB2EC1E6C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="12440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="meteoview_static_file" sheetId="1" r:id="rId1"/>
-    <sheet name="mornos_static_file" sheetId="3" r:id="rId2"/>
+    <sheet name="mornos_static_file" sheetId="3" r:id="rId1"/>
+    <sheet name="meteoview_static_file" sheetId="1" r:id="rId2"/>
     <sheet name="Flags_interpretation" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
@@ -864,8 +865,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1259,87 +1260,990 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:T14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="31.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="33.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="31.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="33.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="26" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="26.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="31.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="33.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="36.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="26" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="26.5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="31.33203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="33.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="I1" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="J1" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="K1" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="L1" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="M1" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="N1" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="O1" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="P1" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q1" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="R1" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="S1" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="T1" s="16" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
+      <c r="A2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="G2" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="H2" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="I2" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="J2" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="K2" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="L2" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="M2" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="N2" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="O2" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="P2" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q2" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="R2" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="S2" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="T2" s="16" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" s="3" customFormat="1">
+      <c r="A3" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="B3" s="5">
+        <v>17730169</v>
+      </c>
+      <c r="C3" s="5">
+        <v>17730169</v>
+      </c>
+      <c r="D3" s="5">
+        <v>17730169</v>
+      </c>
+      <c r="E3" s="5">
+        <v>17730169</v>
+      </c>
+      <c r="F3" s="5">
+        <v>17730169</v>
+      </c>
+      <c r="G3" s="5">
+        <v>17730169</v>
+      </c>
+      <c r="H3" s="5">
+        <v>17730169</v>
+      </c>
+      <c r="I3" s="5">
+        <v>17730169</v>
+      </c>
+      <c r="J3" s="5">
+        <v>17730169</v>
+      </c>
+      <c r="K3" s="5">
+        <v>17730169</v>
+      </c>
+      <c r="L3" s="5">
+        <v>17730169</v>
+      </c>
+      <c r="M3" s="5">
+        <v>17730169</v>
+      </c>
+      <c r="N3" s="5">
+        <v>17730169</v>
+      </c>
+      <c r="O3" s="5">
+        <v>17730169</v>
+      </c>
+      <c r="P3" s="5">
+        <v>17730169</v>
+      </c>
+      <c r="Q3" s="5">
+        <v>17730169</v>
+      </c>
+      <c r="R3" s="5">
+        <v>17730169</v>
+      </c>
+      <c r="S3" s="5">
+        <v>17730169</v>
+      </c>
+      <c r="T3" s="5">
+        <v>17730169</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="G4" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="H4" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="I4" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="J4" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="K4" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="L4" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="M4" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="N4" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="O4" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="P4" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q4" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="R4" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="S4" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="T4" s="16" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="G5" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="H5" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="I5" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="J5" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="K5" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="L5" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="M5" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="N5" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="O5" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="P5" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q5" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="R5" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="S5" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="T5" s="16" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="G6" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="H6" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="I6" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="J6" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="K6" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="L6" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="M6" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="N6" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="O6" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="P6" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q6" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="R6" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="S6" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="T6" s="16" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="17">
+        <v>42549</v>
+      </c>
+      <c r="C7" s="17">
+        <v>42549</v>
+      </c>
+      <c r="D7" s="17">
+        <v>42549</v>
+      </c>
+      <c r="E7" s="17">
+        <v>42549</v>
+      </c>
+      <c r="F7" s="17">
+        <v>42549</v>
+      </c>
+      <c r="G7" s="17">
+        <v>42549</v>
+      </c>
+      <c r="H7" s="17">
+        <v>42549</v>
+      </c>
+      <c r="I7" s="17">
+        <v>42549</v>
+      </c>
+      <c r="J7" s="17">
+        <v>42549</v>
+      </c>
+      <c r="K7" s="17">
+        <v>42549</v>
+      </c>
+      <c r="L7" s="17">
+        <v>42549</v>
+      </c>
+      <c r="M7" s="17">
+        <v>42549</v>
+      </c>
+      <c r="N7" s="17">
+        <v>42549</v>
+      </c>
+      <c r="O7" s="17">
+        <v>42549</v>
+      </c>
+      <c r="P7" s="17">
+        <v>42549</v>
+      </c>
+      <c r="Q7" s="17">
+        <v>42549</v>
+      </c>
+      <c r="R7" s="17">
+        <v>42549</v>
+      </c>
+      <c r="S7" s="17">
+        <v>42549</v>
+      </c>
+      <c r="T7" s="17">
+        <v>42549</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="F8" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="G8" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="H8" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="I8" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="J8" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="K8" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="L8" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="M8" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="N8" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="O8" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="P8" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q8" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="R8" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="S8" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="T8" s="18" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="F9" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="G9" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="H9" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="I9" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="J9" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="K9" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="L9" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="M9" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="N9" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="O9" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="P9" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q9" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="R9" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="S9" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="T9" s="18" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="F10" s="19" t="s">
+        <v>178</v>
+      </c>
+      <c r="G10" s="19" t="s">
+        <v>179</v>
+      </c>
+      <c r="H10" s="19" t="s">
+        <v>180</v>
+      </c>
+      <c r="I10" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="J10" s="19" t="s">
+        <v>182</v>
+      </c>
+      <c r="K10" s="19" t="s">
+        <v>183</v>
+      </c>
+      <c r="L10" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="M10" s="19" t="s">
+        <v>185</v>
+      </c>
+      <c r="N10" s="19" t="s">
+        <v>186</v>
+      </c>
+      <c r="O10" s="19" t="s">
+        <v>187</v>
+      </c>
+      <c r="P10" s="19" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q10" s="19" t="s">
+        <v>189</v>
+      </c>
+      <c r="R10" s="19" t="s">
+        <v>190</v>
+      </c>
+      <c r="S10" s="19" t="s">
+        <v>191</v>
+      </c>
+      <c r="T10" s="19" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="G11" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="H11" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="I11" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="J11" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="K11" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="L11" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="M11" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="N11" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="O11" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="P11" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q11" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="R11" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="S11" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="T11" s="16" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="G12" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="H12" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="I12" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="J12" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="K12" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="L12" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="M12" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="N12" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="O12" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="P12" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q12" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="R12" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="S12" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="T12" s="16" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" s="2" customFormat="1">
+      <c r="A13" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" s="16">
+        <v>5</v>
+      </c>
+      <c r="C13" s="16">
+        <v>5</v>
+      </c>
+      <c r="D13" s="16">
+        <v>5</v>
+      </c>
+      <c r="E13" s="16">
+        <v>5</v>
+      </c>
+      <c r="F13" s="16">
+        <v>5</v>
+      </c>
+      <c r="G13" s="16">
+        <v>5</v>
+      </c>
+      <c r="H13" s="16">
+        <v>5</v>
+      </c>
+      <c r="I13" s="16">
+        <v>5</v>
+      </c>
+      <c r="J13" s="16">
+        <v>5</v>
+      </c>
+      <c r="K13" s="16">
+        <v>5</v>
+      </c>
+      <c r="L13" s="16">
+        <v>5</v>
+      </c>
+      <c r="M13" s="16">
+        <v>5</v>
+      </c>
+      <c r="N13" s="16">
+        <v>5</v>
+      </c>
+      <c r="O13" s="16">
+        <v>5</v>
+      </c>
+      <c r="P13" s="16">
+        <v>5</v>
+      </c>
+      <c r="Q13" s="16">
+        <v>5</v>
+      </c>
+      <c r="R13" s="16">
+        <v>5</v>
+      </c>
+      <c r="S13" s="16">
+        <v>5</v>
+      </c>
+      <c r="T13" s="16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" s="2" customFormat="1">
+      <c r="A14" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="G14" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="H14" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="I14" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="J14" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="K14" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="L14" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="M14" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="N14" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="O14" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="P14" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q14" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="R14" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="S14" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="T14" s="16" t="s">
+        <v>102</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CA68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="28.42578125" style="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" customWidth="1"/>
-    <col min="4" max="4" width="23.5703125" customWidth="1"/>
-    <col min="5" max="5" width="24.28515625" customWidth="1"/>
-    <col min="6" max="6" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.5703125" customWidth="1"/>
-    <col min="8" max="8" width="20.140625" customWidth="1"/>
-    <col min="9" max="9" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="27.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.5703125" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.5" style="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.5" customWidth="1"/>
+    <col min="4" max="4" width="23.5" customWidth="1"/>
+    <col min="5" max="5" width="24.33203125" customWidth="1"/>
+    <col min="6" max="6" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.5" customWidth="1"/>
+    <col min="8" max="8" width="20.1640625" customWidth="1"/>
+    <col min="9" max="9" width="27.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.5" customWidth="1"/>
+    <col min="14" max="14" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.83203125" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="18" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="28.140625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="19.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="27.1640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="28.1640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="19.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="11" style="1" customWidth="1"/>
-    <col min="28" max="28" width="18.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="32" width="13.42578125" style="1" customWidth="1"/>
-    <col min="33" max="33" width="23.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="24.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="16.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="18.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="18.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="32" width="13.5" style="1" customWidth="1"/>
+    <col min="33" max="33" width="23.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="24.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="16.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="18" style="1" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="14.5" style="1" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="27.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="28.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="27.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="28.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="41" max="41" width="19" style="1" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="23.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="24.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="16.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="18.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="23.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="24.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="16.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="46" max="46" width="18" style="1" bestFit="1" customWidth="1"/>
     <col min="47" max="47" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="27.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="28.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="18.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="19.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="23.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="24.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="16.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="27.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="28.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="14.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="18.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="19.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="18.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="23.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="24.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="16.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="57" max="57" width="18" style="1" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="27.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="28.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="13.85546875" style="1" customWidth="1"/>
-    <col min="61" max="61" width="19.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="23.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="27.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="28.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="13.83203125" style="1" customWidth="1"/>
+    <col min="61" max="61" width="19.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="23.5" style="1" bestFit="1" customWidth="1"/>
     <col min="63" max="63" width="11" style="1" customWidth="1"/>
-    <col min="64" max="64" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="18.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="15.5" style="1" bestFit="1" customWidth="1"/>
     <col min="66" max="66" width="11" style="1" customWidth="1"/>
     <col min="67" max="67" width="14" style="1" customWidth="1"/>
     <col min="68" max="71" width="21" style="1" bestFit="1" customWidth="1"/>
-    <col min="72" max="75" width="27.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="72" max="75" width="27.5" style="1" bestFit="1" customWidth="1"/>
     <col min="76" max="79" width="22" style="1" bestFit="1" customWidth="1"/>
-    <col min="80" max="16384" width="9.140625" style="1"/>
+    <col min="80" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:79" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:79" customFormat="1">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -1578,7 +2482,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="2" spans="1:79" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:79" customFormat="1">
       <c r="A2" s="11" t="s">
         <v>1</v>
       </c>
@@ -1817,7 +2721,7 @@
         <v>408457</v>
       </c>
     </row>
-    <row r="3" spans="1:79" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:79" customFormat="1">
       <c r="A3" s="11" t="s">
         <v>121</v>
       </c>
@@ -2056,7 +2960,7 @@
         <v>17730152</v>
       </c>
     </row>
-    <row r="4" spans="1:79" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:79" customFormat="1">
       <c r="A4" s="11" t="s">
         <v>2</v>
       </c>
@@ -2295,7 +3199,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="5" spans="1:79" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:79" customFormat="1">
       <c r="A5" s="11" t="s">
         <v>3</v>
       </c>
@@ -2534,7 +3438,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="1:79" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:79" customFormat="1">
       <c r="A6" s="11" t="s">
         <v>4</v>
       </c>
@@ -2773,7 +3677,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:79">
       <c r="A7" s="12" t="s">
         <v>31</v>
       </c>
@@ -3012,7 +3916,7 @@
         <v>42440</v>
       </c>
     </row>
-    <row r="8" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:79">
       <c r="A8" s="12" t="s">
         <v>36</v>
       </c>
@@ -3251,7 +4155,7 @@
         <v>452575.98</v>
       </c>
     </row>
-    <row r="9" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:79">
       <c r="A9" s="12" t="s">
         <v>37</v>
       </c>
@@ -3490,7 +4394,7 @@
         <v>4233704.5999999996</v>
       </c>
     </row>
-    <row r="10" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:79">
       <c r="A10" s="12" t="s">
         <v>38</v>
       </c>
@@ -3729,7 +4633,7 @@
         <v>145778</v>
       </c>
     </row>
-    <row r="11" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:79">
       <c r="A11" s="12" t="s">
         <v>39</v>
       </c>
@@ -3968,7 +4872,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="12" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:79">
       <c r="A12" s="12" t="s">
         <v>40</v>
       </c>
@@ -4207,7 +5111,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="13" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:79">
       <c r="A13" s="12" t="s">
         <v>41</v>
       </c>
@@ -4446,7 +5350,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="14" spans="1:79" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:79" ht="17">
       <c r="A14" s="12" t="s">
         <v>42</v>
       </c>
@@ -4685,7 +5589,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:79">
       <c r="A15" s="11" t="s">
         <v>122</v>
       </c>
@@ -4924,7 +5828,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="16" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:79">
       <c r="A16" s="11" t="s">
         <v>127</v>
       </c>
@@ -5163,7 +6067,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="17" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:79">
       <c r="A17" s="11" t="s">
         <v>126</v>
       </c>
@@ -5402,157 +6306,157 @@
         <v>137</v>
       </c>
     </row>
-    <row r="18" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:79">
       <c r="A18" s="13"/>
     </row>
-    <row r="19" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:79">
       <c r="A19" s="13"/>
     </row>
-    <row r="20" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:79">
       <c r="A20" s="13"/>
     </row>
-    <row r="21" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:79">
       <c r="A21" s="13"/>
     </row>
-    <row r="22" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:79">
       <c r="A22" s="13"/>
     </row>
-    <row r="23" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:79">
       <c r="A23" s="13"/>
     </row>
-    <row r="24" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:79">
       <c r="A24" s="13"/>
     </row>
-    <row r="25" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:79">
       <c r="A25" s="13"/>
     </row>
-    <row r="26" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:79">
       <c r="A26" s="13"/>
     </row>
-    <row r="27" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:79">
       <c r="A27" s="13"/>
     </row>
-    <row r="28" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:79">
       <c r="A28" s="13"/>
     </row>
-    <row r="29" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:79">
       <c r="A29" s="13"/>
     </row>
-    <row r="30" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:79">
       <c r="A30" s="13"/>
     </row>
-    <row r="31" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:79">
       <c r="A31" s="13"/>
     </row>
-    <row r="32" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:79">
       <c r="A32" s="13"/>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1">
       <c r="A33" s="13"/>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1">
       <c r="A34" s="13"/>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1">
       <c r="A35" s="13"/>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1">
       <c r="A36" s="13"/>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1">
       <c r="A37" s="13"/>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1">
       <c r="A38" s="13"/>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1">
       <c r="A39" s="13"/>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1">
       <c r="A40" s="13"/>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1">
       <c r="A41" s="13"/>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1">
       <c r="A42" s="13"/>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1">
       <c r="A43" s="13"/>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1">
       <c r="A44" s="13"/>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:1">
       <c r="A45" s="13"/>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:1">
       <c r="A46" s="13"/>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:1">
       <c r="A47" s="13"/>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:1">
       <c r="A48" s="13"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1">
       <c r="A49" s="13"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1">
       <c r="A50" s="13"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1">
       <c r="A51" s="13"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1">
       <c r="A52" s="13"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1">
       <c r="A53" s="13"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1">
       <c r="A54" s="13"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1">
       <c r="A55" s="13"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1">
       <c r="A56" s="13"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1">
       <c r="A57" s="14"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1">
       <c r="A58" s="14"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1">
       <c r="A59" s="14"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1">
       <c r="A60" s="14"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1">
       <c r="A61" s="13"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1">
       <c r="A62" s="13"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1">
       <c r="A63" s="13"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1">
       <c r="A64" s="13"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1">
       <c r="A65" s="13"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1">
       <c r="A66" s="13"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1">
       <c r="A67" s="13"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1">
       <c r="A68" s="13"/>
     </row>
   </sheetData>
@@ -5561,920 +6465,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T14"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="25.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="25.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="31.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="33.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="26.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="31.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="33.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="26" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="26.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="31.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="33.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="36.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="26" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="26.5703125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="31.28515625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="33.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="C1" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="D1" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="E1" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="F1" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="G1" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="H1" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="I1" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="J1" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="K1" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="L1" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="M1" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="N1" s="16" t="s">
-        <v>93</v>
-      </c>
-      <c r="O1" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="P1" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q1" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="R1" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="S1" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="T1" s="16" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="D2" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="E2" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="F2" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="G2" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="H2" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="I2" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="J2" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="K2" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="L2" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="M2" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="N2" s="16" t="s">
-        <v>93</v>
-      </c>
-      <c r="O2" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="P2" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q2" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="R2" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="S2" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="T2" s="16" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="B3" s="5">
-        <v>17730169</v>
-      </c>
-      <c r="C3" s="5">
-        <v>17730169</v>
-      </c>
-      <c r="D3" s="5">
-        <v>17730169</v>
-      </c>
-      <c r="E3" s="5">
-        <v>17730169</v>
-      </c>
-      <c r="F3" s="5">
-        <v>17730169</v>
-      </c>
-      <c r="G3" s="5">
-        <v>17730169</v>
-      </c>
-      <c r="H3" s="5">
-        <v>17730169</v>
-      </c>
-      <c r="I3" s="5">
-        <v>17730169</v>
-      </c>
-      <c r="J3" s="5">
-        <v>17730169</v>
-      </c>
-      <c r="K3" s="5">
-        <v>17730169</v>
-      </c>
-      <c r="L3" s="5">
-        <v>17730169</v>
-      </c>
-      <c r="M3" s="5">
-        <v>17730169</v>
-      </c>
-      <c r="N3" s="5">
-        <v>17730169</v>
-      </c>
-      <c r="O3" s="5">
-        <v>17730169</v>
-      </c>
-      <c r="P3" s="5">
-        <v>17730169</v>
-      </c>
-      <c r="Q3" s="5">
-        <v>17730169</v>
-      </c>
-      <c r="R3" s="5">
-        <v>17730169</v>
-      </c>
-      <c r="S3" s="5">
-        <v>17730169</v>
-      </c>
-      <c r="T3" s="5">
-        <v>17730169</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>120</v>
-      </c>
-      <c r="D4" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="E4" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="F4" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="G4" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="H4" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="I4" s="16" t="s">
-        <v>105</v>
-      </c>
-      <c r="J4" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="K4" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="L4" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="M4" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="N4" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="O4" s="16" t="s">
-        <v>117</v>
-      </c>
-      <c r="P4" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q4" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="R4" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="S4" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="T4" s="16" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>175</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>175</v>
-      </c>
-      <c r="D5" s="16" t="s">
-        <v>175</v>
-      </c>
-      <c r="E5" s="16" t="s">
-        <v>175</v>
-      </c>
-      <c r="F5" s="16" t="s">
-        <v>175</v>
-      </c>
-      <c r="G5" s="16" t="s">
-        <v>175</v>
-      </c>
-      <c r="H5" s="16" t="s">
-        <v>175</v>
-      </c>
-      <c r="I5" s="16" t="s">
-        <v>175</v>
-      </c>
-      <c r="J5" s="16" t="s">
-        <v>175</v>
-      </c>
-      <c r="K5" s="16" t="s">
-        <v>175</v>
-      </c>
-      <c r="L5" s="16" t="s">
-        <v>175</v>
-      </c>
-      <c r="M5" s="16" t="s">
-        <v>175</v>
-      </c>
-      <c r="N5" s="16" t="s">
-        <v>175</v>
-      </c>
-      <c r="O5" s="16" t="s">
-        <v>175</v>
-      </c>
-      <c r="P5" s="16" t="s">
-        <v>175</v>
-      </c>
-      <c r="Q5" s="16" t="s">
-        <v>175</v>
-      </c>
-      <c r="R5" s="16" t="s">
-        <v>175</v>
-      </c>
-      <c r="S5" s="16" t="s">
-        <v>175</v>
-      </c>
-      <c r="T5" s="16" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="F6" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="G6" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="H6" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="I6" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="J6" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="K6" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="L6" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="M6" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="N6" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="O6" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="P6" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q6" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="R6" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="S6" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="T6" s="16" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B7" s="17">
-        <v>42549</v>
-      </c>
-      <c r="C7" s="17">
-        <v>42549</v>
-      </c>
-      <c r="D7" s="17">
-        <v>42549</v>
-      </c>
-      <c r="E7" s="17">
-        <v>42549</v>
-      </c>
-      <c r="F7" s="17">
-        <v>42549</v>
-      </c>
-      <c r="G7" s="17">
-        <v>42549</v>
-      </c>
-      <c r="H7" s="17">
-        <v>42549</v>
-      </c>
-      <c r="I7" s="17">
-        <v>42549</v>
-      </c>
-      <c r="J7" s="17">
-        <v>42549</v>
-      </c>
-      <c r="K7" s="17">
-        <v>42549</v>
-      </c>
-      <c r="L7" s="17">
-        <v>42549</v>
-      </c>
-      <c r="M7" s="17">
-        <v>42549</v>
-      </c>
-      <c r="N7" s="17">
-        <v>42549</v>
-      </c>
-      <c r="O7" s="17">
-        <v>42549</v>
-      </c>
-      <c r="P7" s="17">
-        <v>42549</v>
-      </c>
-      <c r="Q7" s="17">
-        <v>42549</v>
-      </c>
-      <c r="R7" s="17">
-        <v>42549</v>
-      </c>
-      <c r="S7" s="17">
-        <v>42549</v>
-      </c>
-      <c r="T7" s="17">
-        <v>42549</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B8" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="D8" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="E8" s="18" t="s">
-        <v>134</v>
-      </c>
-      <c r="F8" s="18" t="s">
-        <v>134</v>
-      </c>
-      <c r="G8" s="18" t="s">
-        <v>134</v>
-      </c>
-      <c r="H8" s="18" t="s">
-        <v>134</v>
-      </c>
-      <c r="I8" s="18" t="s">
-        <v>134</v>
-      </c>
-      <c r="J8" s="18" t="s">
-        <v>134</v>
-      </c>
-      <c r="K8" s="18" t="s">
-        <v>134</v>
-      </c>
-      <c r="L8" s="18" t="s">
-        <v>134</v>
-      </c>
-      <c r="M8" s="18" t="s">
-        <v>134</v>
-      </c>
-      <c r="N8" s="18" t="s">
-        <v>134</v>
-      </c>
-      <c r="O8" s="18" t="s">
-        <v>134</v>
-      </c>
-      <c r="P8" s="18" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q8" s="18" t="s">
-        <v>134</v>
-      </c>
-      <c r="R8" s="18" t="s">
-        <v>134</v>
-      </c>
-      <c r="S8" s="18" t="s">
-        <v>134</v>
-      </c>
-      <c r="T8" s="18" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B9" s="18" t="s">
-        <v>132</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>132</v>
-      </c>
-      <c r="D9" s="18" t="s">
-        <v>132</v>
-      </c>
-      <c r="E9" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="F9" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="G9" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="H9" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="I9" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="J9" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="K9" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="L9" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="M9" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="N9" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="O9" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="P9" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q9" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="R9" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="S9" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="T9" s="18" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="B10" s="19" t="s">
-        <v>176</v>
-      </c>
-      <c r="C10" s="19" t="s">
-        <v>177</v>
-      </c>
-      <c r="D10" s="19" t="s">
-        <v>133</v>
-      </c>
-      <c r="E10" s="19" t="s">
-        <v>136</v>
-      </c>
-      <c r="F10" s="19" t="s">
-        <v>178</v>
-      </c>
-      <c r="G10" s="19" t="s">
-        <v>179</v>
-      </c>
-      <c r="H10" s="19" t="s">
-        <v>180</v>
-      </c>
-      <c r="I10" s="19" t="s">
-        <v>181</v>
-      </c>
-      <c r="J10" s="19" t="s">
-        <v>182</v>
-      </c>
-      <c r="K10" s="19" t="s">
-        <v>183</v>
-      </c>
-      <c r="L10" s="19" t="s">
-        <v>184</v>
-      </c>
-      <c r="M10" s="19" t="s">
-        <v>185</v>
-      </c>
-      <c r="N10" s="19" t="s">
-        <v>186</v>
-      </c>
-      <c r="O10" s="19" t="s">
-        <v>187</v>
-      </c>
-      <c r="P10" s="19" t="s">
-        <v>188</v>
-      </c>
-      <c r="Q10" s="19" t="s">
-        <v>189</v>
-      </c>
-      <c r="R10" s="19" t="s">
-        <v>190</v>
-      </c>
-      <c r="S10" s="19" t="s">
-        <v>191</v>
-      </c>
-      <c r="T10" s="19" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>125</v>
-      </c>
-      <c r="C11" s="16" t="s">
-        <v>125</v>
-      </c>
-      <c r="D11" s="16" t="s">
-        <v>125</v>
-      </c>
-      <c r="E11" s="16" t="s">
-        <v>125</v>
-      </c>
-      <c r="F11" s="16" t="s">
-        <v>125</v>
-      </c>
-      <c r="G11" s="16" t="s">
-        <v>125</v>
-      </c>
-      <c r="H11" s="16" t="s">
-        <v>125</v>
-      </c>
-      <c r="I11" s="16" t="s">
-        <v>125</v>
-      </c>
-      <c r="J11" s="16" t="s">
-        <v>125</v>
-      </c>
-      <c r="K11" s="16" t="s">
-        <v>125</v>
-      </c>
-      <c r="L11" s="16" t="s">
-        <v>125</v>
-      </c>
-      <c r="M11" s="16" t="s">
-        <v>125</v>
-      </c>
-      <c r="N11" s="16" t="s">
-        <v>125</v>
-      </c>
-      <c r="O11" s="16" t="s">
-        <v>125</v>
-      </c>
-      <c r="P11" s="16" t="s">
-        <v>125</v>
-      </c>
-      <c r="Q11" s="16" t="s">
-        <v>125</v>
-      </c>
-      <c r="R11" s="16" t="s">
-        <v>125</v>
-      </c>
-      <c r="S11" s="16" t="s">
-        <v>125</v>
-      </c>
-      <c r="T11" s="16" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B12" s="16" t="s">
-        <v>125</v>
-      </c>
-      <c r="C12" s="16" t="s">
-        <v>125</v>
-      </c>
-      <c r="D12" s="16" t="s">
-        <v>125</v>
-      </c>
-      <c r="E12" s="16" t="s">
-        <v>125</v>
-      </c>
-      <c r="F12" s="16" t="s">
-        <v>125</v>
-      </c>
-      <c r="G12" s="16" t="s">
-        <v>125</v>
-      </c>
-      <c r="H12" s="16" t="s">
-        <v>125</v>
-      </c>
-      <c r="I12" s="16" t="s">
-        <v>125</v>
-      </c>
-      <c r="J12" s="16" t="s">
-        <v>125</v>
-      </c>
-      <c r="K12" s="16" t="s">
-        <v>125</v>
-      </c>
-      <c r="L12" s="16" t="s">
-        <v>125</v>
-      </c>
-      <c r="M12" s="16" t="s">
-        <v>125</v>
-      </c>
-      <c r="N12" s="16" t="s">
-        <v>125</v>
-      </c>
-      <c r="O12" s="16" t="s">
-        <v>125</v>
-      </c>
-      <c r="P12" s="16" t="s">
-        <v>125</v>
-      </c>
-      <c r="Q12" s="16" t="s">
-        <v>125</v>
-      </c>
-      <c r="R12" s="16" t="s">
-        <v>125</v>
-      </c>
-      <c r="S12" s="16" t="s">
-        <v>125</v>
-      </c>
-      <c r="T12" s="16" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B13" s="16">
-        <v>5</v>
-      </c>
-      <c r="C13" s="16">
-        <v>5</v>
-      </c>
-      <c r="D13" s="16">
-        <v>5</v>
-      </c>
-      <c r="E13" s="16">
-        <v>5</v>
-      </c>
-      <c r="F13" s="16">
-        <v>5</v>
-      </c>
-      <c r="G13" s="16">
-        <v>5</v>
-      </c>
-      <c r="H13" s="16">
-        <v>5</v>
-      </c>
-      <c r="I13" s="16">
-        <v>5</v>
-      </c>
-      <c r="J13" s="16">
-        <v>5</v>
-      </c>
-      <c r="K13" s="16">
-        <v>5</v>
-      </c>
-      <c r="L13" s="16">
-        <v>5</v>
-      </c>
-      <c r="M13" s="16">
-        <v>5</v>
-      </c>
-      <c r="N13" s="16">
-        <v>5</v>
-      </c>
-      <c r="O13" s="16">
-        <v>5</v>
-      </c>
-      <c r="P13" s="16">
-        <v>5</v>
-      </c>
-      <c r="Q13" s="16">
-        <v>5</v>
-      </c>
-      <c r="R13" s="16">
-        <v>5</v>
-      </c>
-      <c r="S13" s="16">
-        <v>5</v>
-      </c>
-      <c r="T13" s="16">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B14" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="D14" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="E14" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="F14" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="G14" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="H14" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="I14" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="J14" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="K14" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="L14" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="M14" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="N14" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="O14" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="P14" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q14" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="R14" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="S14" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="T14" s="16" t="s">
-        <v>102</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>68</v>
       </c>
@@ -6482,7 +6483,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -6490,7 +6491,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -6498,7 +6499,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4">
         <v>4</v>
       </c>
@@ -6506,7 +6507,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="A5">
         <v>8</v>
       </c>
@@ -6514,7 +6515,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="A6">
         <v>256</v>
       </c>
@@ -6522,7 +6523,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2">
       <c r="A7">
         <v>512</v>
       </c>
@@ -6530,7 +6531,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2">
       <c r="A8">
         <v>1024</v>
       </c>
@@ -6538,7 +6539,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2">
       <c r="A9">
         <v>65536</v>
       </c>
@@ -6546,7 +6547,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2">
       <c r="A10">
         <v>131072</v>
       </c>
@@ -6554,7 +6555,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2">
       <c r="A11">
         <v>262144</v>
       </c>
@@ -6562,7 +6563,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2">
       <c r="A12">
         <v>524288</v>
       </c>
@@ -6570,7 +6571,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2">
       <c r="A13">
         <v>1048576</v>
       </c>
@@ -6578,7 +6579,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2">
       <c r="A14">
         <v>16711680</v>
       </c>
